--- a/TMS_API/DMS.API/Template/PhanTichChietKhau.xlsx
+++ b/TMS_API/DMS.API/Template/PhanTichChietKhau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS_PLX\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AC04D9-30A6-455A-A6F7-D53CCBB81C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BD1754-7EB4-4B5B-A3C4-4B6891DFA51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{91A2324A-0DC2-43DB-BF7A-AA8FE0998FCE}"/>
   </bookViews>
@@ -80,16 +80,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,20 +414,31 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:S2"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="6" width="21.7109375" customWidth="1"/>
-    <col min="8" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="20" width="17.28515625" customWidth="1"/>
-    <col min="21" max="24" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="0.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="22.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="24" width="19.5703125" customWidth="1"/>
     <col min="25" max="25" width="18.28515625" customWidth="1"/>
     <col min="26" max="29" width="15.7109375" customWidth="1"/>
     <col min="30" max="34" width="16.5703125" customWidth="1"/>
@@ -455,125 +466,125 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
     </row>
     <row r="2" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
     </row>
     <row r="3" spans="1:58" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:58" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:58" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:58" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:58" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>

--- a/TMS_API/DMS.API/Template/PhanTichChietKhau.xlsx
+++ b/TMS_API/DMS.API/Template/PhanTichChietKhau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS_PLX\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BD1754-7EB4-4B5B-A3C4-4B6891DFA51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C29F9EB-A88B-4593-90BA-96F1486AAAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{91A2324A-0DC2-43DB-BF7A-AA8FE0998FCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440" xr2:uid="{91A2324A-0DC2-43DB-BF7A-AA8FE0998FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -93,6 +93,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,7 +417,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -581,7 +584,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:58" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" s="8" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>

--- a/TMS_API/DMS.API/Template/PhanTichChietKhau.xlsx
+++ b/TMS_API/DMS.API/Template/PhanTichChietKhau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS_PLX\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C29F9EB-A88B-4593-90BA-96F1486AAAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BFC497-801F-4AE9-8A43-9E745A3DB2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440" xr2:uid="{91A2324A-0DC2-43DB-BF7A-AA8FE0998FCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{91A2324A-0DC2-43DB-BF7A-AA8FE0998FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,11 +67,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -83,18 +98,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,7 +441,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -510,25 +534,25 @@
       <c r="BF1" s="3"/>
     </row>
     <row r="2" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -570,357 +594,461 @@
       <c r="BF2" s="3"/>
     </row>
     <row r="3" spans="1:58" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
     </row>
     <row r="4" spans="1:58" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
     </row>
     <row r="5" spans="1:58" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:58" s="8" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+    </row>
+    <row r="6" spans="1:58" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
     </row>
     <row r="7" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
     </row>
     <row r="18" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5"/>
     </row>
     <row r="21" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="5"/>
     </row>
     <row r="22" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
     </row>
     <row r="24" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
     </row>
     <row r="25" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
     </row>
     <row r="26" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="5"/>
     </row>
     <row r="43" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="5"/>
     </row>
     <row r="44" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="5"/>
     </row>
     <row r="45" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="5"/>
     </row>
     <row r="46" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="5"/>
     </row>
     <row r="47" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="5"/>
     </row>
     <row r="48" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="5"/>
     </row>
     <row r="50" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="5"/>
     </row>
     <row r="51" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="5"/>
     </row>
     <row r="52" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="5"/>
     </row>
     <row r="53" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="5"/>
     </row>
     <row r="54" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="5"/>
     </row>
     <row r="55" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="A57" s="5"/>
     </row>
     <row r="58" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="5"/>
     </row>
     <row r="60" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="5"/>
     </row>
     <row r="61" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="5"/>
     </row>
     <row r="62" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="5"/>
     </row>
     <row r="63" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="5"/>
     </row>
     <row r="64" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="5"/>
     </row>
     <row r="65" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="5"/>
     </row>
     <row r="66" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="5"/>
     </row>
     <row r="67" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="5"/>
     </row>
     <row r="68" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+      <c r="A68" s="5"/>
     </row>
     <row r="69" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="5"/>
     </row>
     <row r="70" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="A70" s="5"/>
     </row>
     <row r="71" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="A71" s="5"/>
     </row>
     <row r="72" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="A72" s="5"/>
     </row>
     <row r="73" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="5"/>
     </row>
     <row r="74" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+      <c r="A74" s="5"/>
     </row>
     <row r="75" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="A75" s="5"/>
     </row>
     <row r="76" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="5"/>
     </row>
     <row r="77" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="5"/>
     </row>
     <row r="78" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="5"/>
     </row>
     <row r="79" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+      <c r="A79" s="5"/>
     </row>
     <row r="80" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="5"/>
     </row>
     <row r="81" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+      <c r="A81" s="5"/>
     </row>
     <row r="82" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+      <c r="A82" s="5"/>
     </row>
     <row r="83" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+      <c r="A83" s="5"/>
     </row>
     <row r="84" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+      <c r="A84" s="5"/>
     </row>
     <row r="85" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="5"/>
     </row>
     <row r="86" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+      <c r="A86" s="5"/>
     </row>
     <row r="87" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+      <c r="A87" s="5"/>
     </row>
     <row r="88" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="5"/>
     </row>
     <row r="89" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+      <c r="A89" s="5"/>
     </row>
     <row r="90" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
+      <c r="A90" s="5"/>
     </row>
     <row r="91" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="5"/>
     </row>
     <row r="92" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+      <c r="A92" s="5"/>
     </row>
     <row r="93" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
+      <c r="A93" s="5"/>
     </row>
     <row r="94" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
+      <c r="A94" s="5"/>
     </row>
     <row r="95" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
+      <c r="A95" s="5"/>
     </row>
     <row r="96" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+      <c r="A96" s="5"/>
     </row>
     <row r="97" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
+      <c r="A97" s="5"/>
     </row>
     <row r="98" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="5"/>
     </row>
     <row r="99" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="5"/>
     </row>
     <row r="100" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="5"/>
     </row>
     <row r="101" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="5"/>
     </row>
     <row r="102" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
+      <c r="A102" s="5"/>
     </row>
     <row r="103" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
+      <c r="A103" s="5"/>
     </row>
     <row r="104" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
+      <c r="A104" s="5"/>
     </row>
     <row r="105" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
+      <c r="A105" s="5"/>
     </row>
     <row r="106" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
+      <c r="A106" s="5"/>
     </row>
     <row r="107" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
+      <c r="A107" s="5"/>
     </row>
     <row r="108" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
+      <c r="A108" s="5"/>
     </row>
     <row r="109" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
+      <c r="A109" s="5"/>
     </row>
     <row r="110" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
+      <c r="A110" s="5"/>
     </row>
     <row r="111" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
+      <c r="A111" s="5"/>
     </row>
     <row r="112" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
+      <c r="A112" s="5"/>
     </row>
     <row r="113" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
+      <c r="A113" s="5"/>
     </row>
     <row r="114" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
+      <c r="A114" s="5"/>
     </row>
     <row r="115" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
+      <c r="A115" s="5"/>
     </row>
     <row r="116" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
+      <c r="A116" s="5"/>
     </row>
     <row r="117" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
+      <c r="A117" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/TMS_API/DMS.API/Template/PhanTichChietKhau.xlsx
+++ b/TMS_API/DMS.API/Template/PhanTichChietKhau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS_PLX\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BFC497-801F-4AE9-8A43-9E745A3DB2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199F683F-C563-4CE9-A756-6E4577D4620B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{91A2324A-0DC2-43DB-BF7A-AA8FE0998FCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{91A2324A-0DC2-43DB-BF7A-AA8FE0998FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -100,14 +100,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -115,11 +115,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,10 +442,10 @@
   <dimension ref="A1:BF117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -472,27 +476,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
@@ -534,25 +538,25 @@
       <c r="BF1" s="3"/>
     </row>
     <row r="2" spans="1:58" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -594,461 +598,1133 @@
       <c r="BF2" s="3"/>
     </row>
     <row r="3" spans="1:58" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:58" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
     </row>
     <row r="5" spans="1:58" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
     </row>
     <row r="6" spans="1:58" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
     </row>
     <row r="7" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
     </row>
     <row r="8" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
     </row>
     <row r="9" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
     </row>
     <row r="10" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
     </row>
     <row r="11" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
     </row>
     <row r="12" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
     </row>
     <row r="13" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
     </row>
     <row r="14" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
     </row>
     <row r="15" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
     </row>
     <row r="16" spans="1:58" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+    </row>
+    <row r="17" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+    </row>
+    <row r="18" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+    </row>
+    <row r="19" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+    </row>
+    <row r="20" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+    </row>
+    <row r="21" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+    </row>
+    <row r="22" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+    </row>
+    <row r="23" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+    </row>
+    <row r="24" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+    </row>
+    <row r="25" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+    </row>
+    <row r="26" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+    </row>
+    <row r="27" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+    </row>
+    <row r="28" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+    </row>
+    <row r="29" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+    </row>
+    <row r="30" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+    </row>
+    <row r="31" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
     </row>
     <row r="33" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="7"/>
     </row>
     <row r="34" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="7"/>
     </row>
     <row r="35" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="7"/>
     </row>
     <row r="36" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="7"/>
     </row>
     <row r="37" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="7"/>
     </row>
     <row r="38" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+      <c r="A38" s="7"/>
     </row>
     <row r="39" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+      <c r="A39" s="7"/>
     </row>
     <row r="40" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="7"/>
     </row>
     <row r="41" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="A41" s="7"/>
     </row>
     <row r="42" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
+      <c r="A42" s="7"/>
     </row>
     <row r="43" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="7"/>
     </row>
     <row r="44" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="7"/>
     </row>
     <row r="45" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="7"/>
     </row>
     <row r="46" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="7"/>
     </row>
     <row r="47" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+      <c r="A47" s="7"/>
     </row>
     <row r="48" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="7"/>
     </row>
     <row r="49" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="7"/>
     </row>
     <row r="50" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="7"/>
     </row>
     <row r="51" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
+      <c r="A51" s="7"/>
     </row>
     <row r="52" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="7"/>
     </row>
     <row r="54" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A54" s="7"/>
     </row>
     <row r="55" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
+      <c r="A55" s="7"/>
     </row>
     <row r="56" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="A56" s="7"/>
     </row>
     <row r="57" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="A57" s="7"/>
     </row>
     <row r="58" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="7"/>
     </row>
     <row r="59" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="7"/>
     </row>
     <row r="60" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="7"/>
     </row>
     <row r="62" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="7"/>
     </row>
     <row r="63" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="7"/>
     </row>
     <row r="64" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="7"/>
     </row>
     <row r="65" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="7"/>
     </row>
     <row r="66" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="A66" s="7"/>
     </row>
     <row r="67" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
+      <c r="A67" s="7"/>
     </row>
     <row r="68" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
+      <c r="A68" s="7"/>
     </row>
     <row r="69" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
+      <c r="A69" s="7"/>
     </row>
     <row r="70" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
+      <c r="A70" s="7"/>
     </row>
     <row r="71" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
+      <c r="A71" s="7"/>
     </row>
     <row r="72" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="7"/>
     </row>
     <row r="73" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="7"/>
     </row>
     <row r="74" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
+      <c r="A74" s="7"/>
     </row>
     <row r="75" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
+      <c r="A75" s="7"/>
     </row>
     <row r="76" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
+      <c r="A76" s="7"/>
     </row>
     <row r="77" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="7"/>
     </row>
     <row r="78" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
+      <c r="A78" s="7"/>
     </row>
     <row r="79" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
+      <c r="A79" s="7"/>
     </row>
     <row r="80" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
+      <c r="A80" s="7"/>
     </row>
     <row r="81" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
+      <c r="A81" s="7"/>
     </row>
     <row r="82" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
+      <c r="A82" s="7"/>
     </row>
     <row r="83" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
+      <c r="A83" s="7"/>
     </row>
     <row r="84" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
+      <c r="A84" s="7"/>
     </row>
     <row r="85" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
+      <c r="A85" s="7"/>
     </row>
     <row r="86" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
+      <c r="A86" s="7"/>
     </row>
     <row r="87" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
+      <c r="A87" s="7"/>
     </row>
     <row r="88" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
+      <c r="A88" s="7"/>
     </row>
     <row r="89" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
+      <c r="A89" s="7"/>
     </row>
     <row r="90" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
+      <c r="A90" s="7"/>
     </row>
     <row r="91" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
+      <c r="A91" s="7"/>
     </row>
     <row r="92" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
+      <c r="A92" s="7"/>
     </row>
     <row r="93" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
+      <c r="A93" s="7"/>
     </row>
     <row r="94" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
+      <c r="A94" s="7"/>
     </row>
     <row r="95" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
+      <c r="A95" s="7"/>
     </row>
     <row r="96" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
+      <c r="A96" s="7"/>
     </row>
     <row r="97" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
+      <c r="A97" s="7"/>
     </row>
     <row r="98" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
+      <c r="A98" s="7"/>
     </row>
     <row r="99" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
+      <c r="A99" s="7"/>
     </row>
     <row r="100" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
+      <c r="A100" s="7"/>
     </row>
     <row r="101" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
+      <c r="A101" s="7"/>
     </row>
     <row r="102" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
+      <c r="A102" s="7"/>
     </row>
     <row r="103" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
+      <c r="A103" s="7"/>
     </row>
     <row r="104" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
+      <c r="A104" s="7"/>
     </row>
     <row r="105" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
+      <c r="A105" s="7"/>
     </row>
     <row r="106" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
+      <c r="A106" s="7"/>
     </row>
     <row r="107" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
+      <c r="A107" s="7"/>
     </row>
     <row r="108" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
+      <c r="A108" s="7"/>
     </row>
     <row r="109" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
+      <c r="A109" s="7"/>
     </row>
     <row r="110" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
+      <c r="A110" s="7"/>
     </row>
     <row r="111" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
+      <c r="A111" s="7"/>
     </row>
     <row r="112" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
+      <c r="A112" s="7"/>
     </row>
     <row r="113" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
+      <c r="A113" s="7"/>
     </row>
     <row r="114" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
+      <c r="A114" s="7"/>
     </row>
     <row r="115" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
+      <c r="A115" s="7"/>
     </row>
     <row r="116" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
+      <c r="A116" s="7"/>
     </row>
     <row r="117" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
+      <c r="A117" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
